--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:10:48+00:00</t>
+    <t>2022-05-03T15:15:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:15:42+00:00</t>
+    <t>2022-05-03T16:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Questionnaire</t>
   </si>
   <si>
     <t>Path</t>
@@ -273,11 +273,21 @@
     <t>Extension.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -297,6 +307,9 @@
   </si>
   <si>
     <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -654,7 +667,7 @@
   <cols>
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -662,7 +675,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1006,7 +1019,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1025,15 +1038,17 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>72</v>
@@ -1070,19 +1085,19 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
@@ -1097,12 +1112,12 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1202,7 +1217,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1225,13 +1240,13 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1270,19 +1285,19 @@
         <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
@@ -1302,7 +1317,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1325,16 +1340,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1384,7 +1399,7 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>78</v>
@@ -1399,12 +1414,12 @@
         <v>72</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1430,10 +1445,10 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1484,7 +1499,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -1496,15 +1511,15 @@
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1527,16 +1542,16 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1586,7 +1601,7 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
@@ -1601,12 +1616,12 @@
         <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1617,7 +1632,7 @@
         <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>72</v>
@@ -1629,13 +1644,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1686,7 +1701,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -1698,10 +1713,10 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="101">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:40:40+00:00</t>
+    <t>2022-05-03T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,21 +273,11 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -303,16 +293,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.url</t>
+    <t>Extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -328,30 +309,20 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension.value[x]</t>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Value of extension</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
 </sst>
 </file>
@@ -656,7 +627,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -665,9 +636,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -675,7 +646,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1019,14 +990,14 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -1038,17 +1009,15 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>89</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>72</v>
@@ -1085,19 +1054,19 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
@@ -1112,12 +1081,12 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1125,7 +1094,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>78</v>
@@ -1140,22 +1109,24 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>72</v>
@@ -1197,10 +1168,10 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -1212,12 +1183,12 @@
         <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1228,7 +1199,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -1240,13 +1211,13 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1285,438 +1256,34 @@
         <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:58:51+00:00</t>
+    <t>2022-05-03T18:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T18:00:02+00:00</t>
+    <t>2022-05-03T18:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T18:15:57+00:00</t>
+    <t>2022-05-03T18:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T18:29:57+00:00</t>
+    <t>2022-05-03T19:20:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T19:20:08+00:00</t>
+    <t>2022-05-03T19:37:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T19:37:02+00:00</t>
+    <t>2022-05-03T19:46:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T19:46:06+00:00</t>
+    <t>2022-05-04T13:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:03:34+00:00</t>
+    <t>2022-05-04T13:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:10:48+00:00</t>
+    <t>2022-05-04T13:13:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:13:59+00:00</t>
+    <t>2022-05-04T13:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:39:21+00:00</t>
+    <t>2022-05-04T15:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T15:50:12+00:00</t>
+    <t>2022-05-04T16:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T16:10:39+00:00</t>
+    <t>2022-05-04T16:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T16:22:16+00:00</t>
+    <t>2022-05-04T18:38:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T18:38:54+00:00</t>
+    <t>2022-05-09T16:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T16:15:14+00:00</t>
+    <t>2022-05-09T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T16:42:31+00:00</t>
+    <t>2022-05-09T17:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:25:07+00:00</t>
+    <t>2022-05-09T17:41:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Extension : SubStatus</t>
+    <t>Extension : Questionniare SubStatus</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:41:36+00:00</t>
+    <t>2022-05-09T17:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>used to capture other statuses when questionnaire status is set to unknown</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -549,75 +552,75 @@
         <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -676,614 +679,614 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:47:29+00:00</t>
+    <t>2022-05-09T17:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:48:55+00:00</t>
+    <t>2022-05-09T17:49:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:49:02+00:00</t>
+    <t>2022-05-09T17:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:56:47+00:00</t>
+    <t>2022-05-09T17:59:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:59:55+00:00</t>
+    <t>2022-05-09T19:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T19:51:46+00:00</t>
+    <t>2022-05-10T12:02:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T12:02:28+00:00</t>
+    <t>2022-05-10T12:53:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T12:53:35+00:00</t>
+    <t>2022-05-10T16:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-sub-status.xlsx
+++ b/branches/version-1/StructureDefinition-sub-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T16:32:58+00:00</t>
+    <t>2022-05-10T17:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
